--- a/TestCases/Back End/ReadEmployees-BackEnd-Admin.xlsx
+++ b/TestCases/Back End/ReadEmployees-BackEnd-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7E397A18-47C5-4881-B1A6-3FD5D1153ADB}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6AF1A825-0C04-4EF0-B681-2C272D287EC4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{7E397A18-47C5-4881-B1A6-3FD5D1153ADB}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{27B72AC5-3443-4A8A-B065-AA006FC1112C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Role: Admin</t>
   </si>
@@ -41,7 +41,13 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Log in and try to read the list of employees</t>
+    <t>Step 2: Log in as a user with the appropriate role</t>
+  </si>
+  <si>
+    <t>I am redirected to the user's dashboard</t>
+  </si>
+  <si>
+    <t>Step 3: Click on the "Employees" Button</t>
   </si>
   <si>
     <t>I see a list of employees of onshore</t>
@@ -445,7 +451,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1"/>
+    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
     <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
